--- a/medicine/Sexualité et sexologie/Marie_Paoleschi/Marie_Paoleschi.xlsx
+++ b/medicine/Sexualité et sexologie/Marie_Paoleschi/Marie_Paoleschi.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Marie Paoleschi (Lucciana, 28 janvier 1906 - Mimet, 13 août 1988)[1] est une prostituée et une proxénète française, participante et organisatrice de la Traite des blanches.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Marie Paoleschi (Lucciana, 28 janvier 1906 - Mimet, 13 août 1988) est une prostituée et une proxénète française, participante et organisatrice de la Traite des blanches.
 Née Colli à Lucciana dans une famille originaire de Bastia, dès l'âge de 17 ans elle pratique la prostitution de trottoir dans la cité phocéenne. Puis elle monte à Paris. Vers 1925 elle est volontaire pour travailler dans la prostitution de maison close en Amérique du sud où les « Françaises » sont recherchées. Elle n'y fait pas fortune. Après un bref séjour en prison à Marseille, elle retourne à Rio de Janeiro et Caracas.
-En 1937[2] elle épouse son protecteur, Dominique Paoleschi[3], qui l'envoie ensuite dans diverses « maisons » françaises. Elle est internée plusieurs mois. Après l'Occupation, elle est en Indochine puis en Algérie comme tenancière. Notamment elle gère pour son mari  le « Point Bleu » à Biskra.
+En 1937 elle épouse son protecteur, Dominique Paoleschi, qui l'envoie ensuite dans diverses « maisons » françaises. Elle est internée plusieurs mois. Après l'Occupation, elle est en Indochine puis en Algérie comme tenancière. Notamment elle gère pour son mari  le « Point Bleu » à Biskra.
 En 1963, un accident de voiture en Corse la laisse à moitié impotente. En 1967 son époux Dominique meurt d'un cancer. Elle a laissé deux livres qui décrivent un milieu et une époque déjà lointains mais aussi une mentalité de femme incompréhensible pour les Européens du XXIe siècle.
 Elle décède à Mimet dans les Bouches-du-Rhône le 13 août 1988.
 </t>
